--- a/static/assets/excel/excel_sheet_demo.xlsx
+++ b/static/assets/excel/excel_sheet_demo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Timestamp</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Fresher/Experienced</t>
+    <t>fresher/experienced</t>
   </si>
   <si>
     <t>Internship if any (eg: yes/no)</t>
@@ -61,17 +61,24 @@
     <t>Company Name</t>
   </si>
   <si>
-    <t>Duration Of Working(in months)</t>
+    <t>Internship Duration(eg: 6)</t>
   </si>
   <si>
     <t>Registering for what</t>
+  </si>
+  <si>
+    <t>Experience in Months(eg: 12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -83,13 +90,28 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -106,6 +128,33 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -324,9 +373,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="28.75"/>
     <col customWidth="1" min="6" max="6" width="22.75"/>
     <col customWidth="1" min="9" max="9" width="26.38"/>
     <col customWidth="1" min="10" max="10" width="20.88"/>
+    <col customWidth="1" min="15" max="15" width="23.38"/>
+    <col customWidth="1" min="17" max="17" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -354,7 +406,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -384,6 +436,177 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
